--- a/biology/Botanique/Violette_Parfumée/Violette_Parfumée.xlsx
+++ b/biology/Botanique/Violette_Parfumée/Violette_Parfumée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Violette_Parfum%C3%A9e</t>
+          <t>Violette_Parfumée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Violette Parfumée' est un cultivar de rosier hybride de thé grandiflora[1] obtenu par le rosiériste français Dorieux en 1992.
+'Violette Parfumée' est un cultivar de rosier hybride de thé grandiflora obtenu par le rosiériste français Dorieux en 1992.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Violette_Parfum%C3%A9e</t>
+          <t>Violette_Parfumée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose, dont le buisson s'élève de 100 à 120 cm[2] pour 70 à 100 cm d'envergure, a été primée à de nombreuses reprises pour son parfum et son coloris exceptionnel : de violet-pourpre à mauve-argenté, en passant par le vieux rose[3].  Ses roses mesurent 9 à 10 cm de diamètre et présentent une forme turbinée typique des hybrides de thé. Elles possèdent 25 à 30 pétales d'aspect satiné.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose, dont le buisson s'élève de 100 à 120 cm pour 70 à 100 cm d'envergure, a été primée à de nombreuses reprises pour son parfum et son coloris exceptionnel : de violet-pourpre à mauve-argenté, en passant par le vieux rose.  Ses roses mesurent 9 à 10 cm de diamètre et présentent une forme turbinée typique des hybrides de thé. Elles possèdent 25 à 30 pétales d'aspect satiné.
 Son buisson possède un feuillage dense vert foncé et des aiguillons rouges à pointe jaune. Ses feuilles à 3 ou 5 folioles sont dentées et épineuses, sur le dessous.
 Elle fleurit de fin mai à octobre. Elle ne produit pas de fruits à l'automne. Elle est issue de 'Dioressence' (Delbard, 1984) x 'Nuit d'Orient'.
 Ce rosier  fait d'excellentes fleurs à couper.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Violette_Parfum%C3%A9e</t>
+          <t>Violette_Parfumée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Médaille d'or et coupe du parfum de Paris-Bagatelle, 1995[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Médaille d'or et coupe du parfum de Paris-Bagatelle, 1995
 Médaille d'or et grand prix du parfum à Baden-Baden, 1995
 Médaille de bronze à Madrid, 1995
 Rose de l'année Jarditec (prix de l'association des journalistes horticoles), 1997
